--- a/data/pca/factorExposure/factorExposure_2011-02-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009841248382060817</v>
+        <v>-0.01494610949749733</v>
       </c>
       <c r="C2">
-        <v>-0.001673561612450806</v>
+        <v>-0.002460396681555971</v>
       </c>
       <c r="D2">
-        <v>0.02914573824202618</v>
+        <v>-0.003280792442328033</v>
       </c>
       <c r="E2">
-        <v>-0.02212507863771732</v>
+        <v>0.01476052242085322</v>
       </c>
       <c r="F2">
-        <v>0.008262699615513692</v>
+        <v>-0.006222640825162888</v>
       </c>
       <c r="G2">
-        <v>-0.01384137761040421</v>
+        <v>0.02129483648669931</v>
       </c>
       <c r="H2">
-        <v>0.06436899028989004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01108124826462503</v>
+      </c>
+      <c r="I2">
+        <v>0.006695422012963895</v>
+      </c>
+      <c r="J2">
+        <v>-0.01214358388930066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1104837903062396</v>
+        <v>-0.123455991712803</v>
       </c>
       <c r="C4">
-        <v>0.01685690107215305</v>
+        <v>-0.04991430296011783</v>
       </c>
       <c r="D4">
-        <v>0.06579395829803394</v>
+        <v>-0.008619777435035666</v>
       </c>
       <c r="E4">
-        <v>-0.05123785588925093</v>
+        <v>-0.004850219444429098</v>
       </c>
       <c r="F4">
-        <v>0.01120637519369241</v>
+        <v>0.005516587592151592</v>
       </c>
       <c r="G4">
-        <v>-0.03911946887976304</v>
+        <v>-0.01727904134930474</v>
       </c>
       <c r="H4">
-        <v>-0.03355319769360394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06051308569199028</v>
+      </c>
+      <c r="I4">
+        <v>-0.08823525543391639</v>
+      </c>
+      <c r="J4">
+        <v>0.0715971983056084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1276882774827425</v>
+        <v>-0.1191725409091835</v>
       </c>
       <c r="C6">
-        <v>0.02068088184849121</v>
+        <v>0.01601008000504406</v>
       </c>
       <c r="D6">
-        <v>-0.04440556813186197</v>
+        <v>-0.01603700973777562</v>
       </c>
       <c r="E6">
-        <v>-0.0351830636958432</v>
+        <v>0.004319837522548571</v>
       </c>
       <c r="F6">
-        <v>-0.2332561503303092</v>
+        <v>-0.03687928569079106</v>
       </c>
       <c r="G6">
-        <v>0.1802263484796721</v>
+        <v>-0.04651322915901289</v>
       </c>
       <c r="H6">
-        <v>-0.2382115267422747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.03954177401077656</v>
+      </c>
+      <c r="I6">
+        <v>-0.0460579939380962</v>
+      </c>
+      <c r="J6">
+        <v>-0.1533123428647567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08693122586503507</v>
+        <v>-0.07697322341999077</v>
       </c>
       <c r="C7">
-        <v>0.03996708371563946</v>
+        <v>-0.04326339860274067</v>
       </c>
       <c r="D7">
-        <v>0.02840168123260669</v>
+        <v>-0.03481500405901853</v>
       </c>
       <c r="E7">
-        <v>-0.04824907469983574</v>
+        <v>0.03678031215092757</v>
       </c>
       <c r="F7">
-        <v>-0.002016007578996264</v>
+        <v>-0.003307573906757272</v>
       </c>
       <c r="G7">
-        <v>0.001822499919850428</v>
+        <v>0.0437242058007421</v>
       </c>
       <c r="H7">
-        <v>-0.01585835618298755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03194096774312741</v>
+      </c>
+      <c r="I7">
+        <v>0.007312000209999079</v>
+      </c>
+      <c r="J7">
+        <v>0.06957113294389021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.0394159696756904</v>
+        <v>-0.05360976552863843</v>
       </c>
       <c r="C8">
-        <v>-0.04031831409295831</v>
+        <v>-0.005817110505588128</v>
       </c>
       <c r="D8">
-        <v>0.06552358511200239</v>
+        <v>-0.007285122249145687</v>
       </c>
       <c r="E8">
-        <v>-0.09631666249136812</v>
+        <v>0.02561467214774955</v>
       </c>
       <c r="F8">
-        <v>-0.05478732842378609</v>
+        <v>0.02005332156219318</v>
       </c>
       <c r="G8">
-        <v>-0.1549364719993544</v>
+        <v>-0.02687720606465816</v>
       </c>
       <c r="H8">
-        <v>-0.0891711994554877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07988268916984827</v>
+      </c>
+      <c r="I8">
+        <v>-0.08444466095678886</v>
+      </c>
+      <c r="J8">
+        <v>0.01939168086315822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09583701345714775</v>
+        <v>-0.09715241865289491</v>
       </c>
       <c r="C9">
-        <v>0.03286549570856748</v>
+        <v>-0.04933614501513549</v>
       </c>
       <c r="D9">
-        <v>0.04201496959757874</v>
+        <v>0.008178986607446637</v>
       </c>
       <c r="E9">
-        <v>-0.04481637428920814</v>
+        <v>0.008712086686205716</v>
       </c>
       <c r="F9">
-        <v>-0.02074135655187272</v>
+        <v>0.0151987970983521</v>
       </c>
       <c r="G9">
-        <v>-0.07341576355086794</v>
+        <v>-0.006141080875496824</v>
       </c>
       <c r="H9">
-        <v>-0.05401758377141486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.06900732153302863</v>
+      </c>
+      <c r="I9">
+        <v>-0.0677120937784471</v>
+      </c>
+      <c r="J9">
+        <v>0.04498622515078099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.04039049844639434</v>
+        <v>-0.06059371033180138</v>
       </c>
       <c r="C10">
-        <v>-0.1770922112068361</v>
+        <v>0.1895441778805777</v>
       </c>
       <c r="D10">
-        <v>0.01248128836543142</v>
+        <v>0.00340071327909172</v>
       </c>
       <c r="E10">
-        <v>-0.09595139989170701</v>
+        <v>0.003556315912772287</v>
       </c>
       <c r="F10">
-        <v>-0.0305451911173678</v>
+        <v>0.008791052950895276</v>
       </c>
       <c r="G10">
-        <v>0.04065589855990143</v>
+        <v>0.0586962281195545</v>
       </c>
       <c r="H10">
-        <v>-0.02799389579299686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02138831836311391</v>
+      </c>
+      <c r="I10">
+        <v>-0.01635571078519937</v>
+      </c>
+      <c r="J10">
+        <v>0.02119714590909089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07776709276689667</v>
+        <v>-0.0958257519554998</v>
       </c>
       <c r="C11">
-        <v>0.05510211288453719</v>
+        <v>-0.06803119804118757</v>
       </c>
       <c r="D11">
-        <v>-0.02022518673560899</v>
+        <v>-0.02898953050925543</v>
       </c>
       <c r="E11">
-        <v>-0.01572766535789569</v>
+        <v>0.04732896952575577</v>
       </c>
       <c r="F11">
-        <v>-0.01182701864521102</v>
+        <v>0.06460597871674045</v>
       </c>
       <c r="G11">
-        <v>-0.1417110676049807</v>
+        <v>-0.02916795757257568</v>
       </c>
       <c r="H11">
-        <v>0.03629033381794229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08774896617341313</v>
+      </c>
+      <c r="I11">
+        <v>-0.06548872883341827</v>
+      </c>
+      <c r="J11">
+        <v>0.01894827995125162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07659094903129875</v>
+        <v>-0.1020529946151727</v>
       </c>
       <c r="C12">
-        <v>0.03054551465789271</v>
+        <v>-0.07070894565435233</v>
       </c>
       <c r="D12">
-        <v>0.01471949018889466</v>
+        <v>-0.03031788193414577</v>
       </c>
       <c r="E12">
-        <v>-0.01006034797636201</v>
+        <v>0.04930419997978448</v>
       </c>
       <c r="F12">
-        <v>-0.05686985928890131</v>
+        <v>0.07669025583106449</v>
       </c>
       <c r="G12">
-        <v>-0.1373897291071281</v>
+        <v>-0.01822634022461548</v>
       </c>
       <c r="H12">
-        <v>0.03874969801760272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09485836137890447</v>
+      </c>
+      <c r="I12">
+        <v>-0.05081568081298953</v>
+      </c>
+      <c r="J12">
+        <v>0.006188828834051203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06415092023470917</v>
+        <v>-0.04622598993700611</v>
       </c>
       <c r="C13">
-        <v>0.001094724426443293</v>
+        <v>-0.01674630164261081</v>
       </c>
       <c r="D13">
-        <v>0.02679004752649948</v>
+        <v>0.02854126952297485</v>
       </c>
       <c r="E13">
-        <v>-0.009359628867649504</v>
+        <v>0.007976213635000324</v>
       </c>
       <c r="F13">
-        <v>0.0216854870718945</v>
+        <v>-0.001281269337607055</v>
       </c>
       <c r="G13">
-        <v>-0.1185327838515296</v>
+        <v>-0.01218231719380903</v>
       </c>
       <c r="H13">
-        <v>-0.04890677499084383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.07555047032043799</v>
+      </c>
+      <c r="I13">
+        <v>-0.03228058791974519</v>
+      </c>
+      <c r="J13">
+        <v>-0.002180580279773471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05136838944917219</v>
+        <v>-0.03175054624949544</v>
       </c>
       <c r="C14">
-        <v>0.01063225820994546</v>
+        <v>-0.006136712782718669</v>
       </c>
       <c r="D14">
-        <v>0.02028646096364032</v>
+        <v>-0.004880410616562332</v>
       </c>
       <c r="E14">
-        <v>-0.04867172768563414</v>
+        <v>0.0009045560563875928</v>
       </c>
       <c r="F14">
-        <v>0.007673204546763056</v>
+        <v>0.01496175273106625</v>
       </c>
       <c r="G14">
-        <v>-0.01556859650943727</v>
+        <v>0.001407844842726574</v>
       </c>
       <c r="H14">
-        <v>-0.148143302996107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02662228063775196</v>
+      </c>
+      <c r="I14">
+        <v>-0.03029524606410412</v>
+      </c>
+      <c r="J14">
+        <v>0.1094380625516393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03724141459194005</v>
+        <v>-0.0306313411033524</v>
       </c>
       <c r="C15">
-        <v>-0.01084182877711882</v>
+        <v>-0.01677601099789295</v>
       </c>
       <c r="D15">
-        <v>0.004488842816704344</v>
+        <v>0.01029936344286557</v>
       </c>
       <c r="E15">
-        <v>-0.02326888331872795</v>
+        <v>0.01030177972057391</v>
       </c>
       <c r="F15">
-        <v>0.0005354941496431829</v>
+        <v>-0.02484720222453667</v>
       </c>
       <c r="G15">
-        <v>-0.006508324902523902</v>
+        <v>-0.004791718368111375</v>
       </c>
       <c r="H15">
-        <v>-0.07388354724712382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.0459210001557535</v>
+      </c>
+      <c r="I15">
+        <v>-0.008643114232753329</v>
+      </c>
+      <c r="J15">
+        <v>0.04132547610423474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08576602441496195</v>
+        <v>-0.1027645416326222</v>
       </c>
       <c r="C16">
-        <v>0.06117611129329489</v>
+        <v>-0.06314463103355344</v>
       </c>
       <c r="D16">
-        <v>0.02650827700385157</v>
+        <v>-0.03964449070684896</v>
       </c>
       <c r="E16">
-        <v>-0.01756039408583401</v>
+        <v>0.05937604895318409</v>
       </c>
       <c r="F16">
-        <v>0.0001343244831772292</v>
+        <v>0.06970830432658799</v>
       </c>
       <c r="G16">
-        <v>-0.1296024034656874</v>
+        <v>-0.01836872211863173</v>
       </c>
       <c r="H16">
-        <v>0.0335400741071416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09815137441695525</v>
+      </c>
+      <c r="I16">
+        <v>-0.04015956358709537</v>
+      </c>
+      <c r="J16">
+        <v>0.02390331208359676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05758052509259954</v>
+        <v>-0.05871602419917576</v>
       </c>
       <c r="C20">
-        <v>0.01479564952215455</v>
+        <v>-0.03001974352437919</v>
       </c>
       <c r="D20">
-        <v>-0.01192814047416062</v>
+        <v>-0.03214909053032323</v>
       </c>
       <c r="E20">
-        <v>-0.01927249587792876</v>
+        <v>0.006925677289078287</v>
       </c>
       <c r="F20">
-        <v>-0.03019172317158729</v>
+        <v>-0.00536323621186497</v>
       </c>
       <c r="G20">
-        <v>-0.1093154712938323</v>
+        <v>-0.006331540067940283</v>
       </c>
       <c r="H20">
-        <v>-0.02552738661386888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04344450057647214</v>
+      </c>
+      <c r="I20">
+        <v>-0.02850077580311976</v>
+      </c>
+      <c r="J20">
+        <v>0.06741788985120466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02715702408685861</v>
+        <v>-0.02197340419201732</v>
       </c>
       <c r="C21">
-        <v>0.0310220961840368</v>
+        <v>-0.002524554845641386</v>
       </c>
       <c r="D21">
-        <v>0.0001371213019794352</v>
+        <v>-0.006234843694991197</v>
       </c>
       <c r="E21">
-        <v>0.006535153112691657</v>
+        <v>-0.0341953543858439</v>
       </c>
       <c r="F21">
-        <v>-0.04070640229650271</v>
+        <v>0.000142696542821746</v>
       </c>
       <c r="G21">
-        <v>0.1559748275602543</v>
+        <v>-0.03111247606751268</v>
       </c>
       <c r="H21">
-        <v>-0.09040378330643149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01685767412279318</v>
+      </c>
+      <c r="I21">
+        <v>-0.03904657463237967</v>
+      </c>
+      <c r="J21">
+        <v>0.05415988438630212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04017933104441977</v>
+        <v>-0.03814747674011817</v>
       </c>
       <c r="C22">
-        <v>0.0132464839174027</v>
+        <v>0.02839964734624874</v>
       </c>
       <c r="D22">
-        <v>0.6205300106934268</v>
+        <v>0.006026258649292065</v>
       </c>
       <c r="E22">
-        <v>0.1232777150839651</v>
+        <v>0.09798431889383889</v>
       </c>
       <c r="F22">
-        <v>0.06206946470824411</v>
+        <v>-0.5836679723736421</v>
       </c>
       <c r="G22">
-        <v>0.2133071184029886</v>
+        <v>0.06272767342308082</v>
       </c>
       <c r="H22">
-        <v>0.06546260168295137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2971670757719794</v>
+      </c>
+      <c r="I22">
+        <v>0.1126552492295385</v>
+      </c>
+      <c r="J22">
+        <v>-0.08161145271806025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04060474277559594</v>
+        <v>-0.03832812224752366</v>
       </c>
       <c r="C23">
-        <v>0.01406807105875391</v>
+        <v>0.02812006380068647</v>
       </c>
       <c r="D23">
-        <v>0.6201943247153501</v>
+        <v>0.005607127935776516</v>
       </c>
       <c r="E23">
-        <v>0.1215742598389091</v>
+        <v>0.0995676190097695</v>
       </c>
       <c r="F23">
-        <v>0.0624729893785821</v>
+        <v>-0.5853836444360567</v>
       </c>
       <c r="G23">
-        <v>0.2152089368503568</v>
+        <v>0.06216992611475215</v>
       </c>
       <c r="H23">
-        <v>0.0652935522140913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.2987100258314954</v>
+      </c>
+      <c r="I23">
+        <v>0.1107897935703989</v>
+      </c>
+      <c r="J23">
+        <v>-0.08036948019394902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08465357884521395</v>
+        <v>-0.1014686942612193</v>
       </c>
       <c r="C24">
-        <v>0.04401440710416925</v>
+        <v>-0.0594081985969481</v>
       </c>
       <c r="D24">
-        <v>0.03039474162923755</v>
+        <v>-0.03423586776346468</v>
       </c>
       <c r="E24">
-        <v>-0.03161259665901184</v>
+        <v>0.04140691080540269</v>
       </c>
       <c r="F24">
-        <v>-0.0243672500119811</v>
+        <v>0.06458960531991584</v>
       </c>
       <c r="G24">
-        <v>-0.1141141279530847</v>
+        <v>-0.006149678026673266</v>
       </c>
       <c r="H24">
-        <v>0.02436687670081324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1011474882924332</v>
+      </c>
+      <c r="I24">
+        <v>-0.04222321812747399</v>
+      </c>
+      <c r="J24">
+        <v>0.01082006028659249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07823220214982156</v>
+        <v>-0.1035490823629533</v>
       </c>
       <c r="C25">
-        <v>0.01643812881575848</v>
+        <v>-0.04745186476716111</v>
       </c>
       <c r="D25">
-        <v>0.01755272389555229</v>
+        <v>-0.02918073833993528</v>
       </c>
       <c r="E25">
-        <v>-0.01960239498736287</v>
+        <v>0.04780768466680013</v>
       </c>
       <c r="F25">
-        <v>-0.04410654050141839</v>
+        <v>0.09085796610023422</v>
       </c>
       <c r="G25">
-        <v>-0.1109736947146775</v>
+        <v>-0.01608509416015561</v>
       </c>
       <c r="H25">
-        <v>0.0285862146928539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09598713099838459</v>
+      </c>
+      <c r="I25">
+        <v>-0.04568829828234509</v>
+      </c>
+      <c r="J25">
+        <v>0.03256273537627724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0504336154146612</v>
+        <v>-0.04823680117354893</v>
       </c>
       <c r="C26">
-        <v>0.0244211801703139</v>
+        <v>-0.0008476388883972631</v>
       </c>
       <c r="D26">
-        <v>0.007746662615467957</v>
+        <v>-0.02651390861501587</v>
       </c>
       <c r="E26">
-        <v>-0.04434364671677267</v>
+        <v>0.00988479977083296</v>
       </c>
       <c r="F26">
-        <v>0.02291824915610632</v>
+        <v>0.007826790347895353</v>
       </c>
       <c r="G26">
-        <v>-0.07888803794235782</v>
+        <v>-0.0337816723329404</v>
       </c>
       <c r="H26">
-        <v>-0.1066410651730488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06018189608296511</v>
+      </c>
+      <c r="I26">
+        <v>-0.02176530321791501</v>
+      </c>
+      <c r="J26">
+        <v>0.06598772792337107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06415479768752107</v>
+        <v>-0.06123417355759874</v>
       </c>
       <c r="C28">
-        <v>-0.3083855272636167</v>
+        <v>0.3089514785177143</v>
       </c>
       <c r="D28">
-        <v>-0.01015579421263073</v>
+        <v>0.07219230954561605</v>
       </c>
       <c r="E28">
-        <v>-0.01728521118398892</v>
+        <v>0.03467438214593122</v>
       </c>
       <c r="F28">
-        <v>0.005324754111917279</v>
+        <v>0.04903399660552066</v>
       </c>
       <c r="G28">
-        <v>0.002506753212773502</v>
+        <v>-0.03129290359131724</v>
       </c>
       <c r="H28">
-        <v>0.05907879115395338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04395231973393288</v>
+      </c>
+      <c r="I28">
+        <v>-0.04289468576490269</v>
+      </c>
+      <c r="J28">
+        <v>0.008121030357999633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05848649700735192</v>
+        <v>-0.03754187225666929</v>
       </c>
       <c r="C29">
-        <v>-0.001635510377272504</v>
+        <v>-0.005012693588343494</v>
       </c>
       <c r="D29">
-        <v>0.04102039808935828</v>
+        <v>0.006099635619401651</v>
       </c>
       <c r="E29">
-        <v>-0.02652823007152723</v>
+        <v>0.009494118175428033</v>
       </c>
       <c r="F29">
-        <v>0.01038068835390998</v>
+        <v>0.02091484122315972</v>
       </c>
       <c r="G29">
-        <v>-0.04671443021994695</v>
+        <v>0.008006278346791384</v>
       </c>
       <c r="H29">
-        <v>-0.1078415437293849</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06086795100313279</v>
+      </c>
+      <c r="I29">
+        <v>-0.01326927851110091</v>
+      </c>
+      <c r="J29">
+        <v>0.1173531214682778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1132164420719673</v>
+        <v>-0.1207163173444255</v>
       </c>
       <c r="C30">
-        <v>-0.009468818832581284</v>
+        <v>-0.05829670486172842</v>
       </c>
       <c r="D30">
-        <v>0.1578514019037585</v>
+        <v>0.009349013621360871</v>
       </c>
       <c r="E30">
-        <v>-0.03413990698424476</v>
+        <v>0.02451022236868539</v>
       </c>
       <c r="F30">
-        <v>-0.1942430286202276</v>
+        <v>0.04187636601022649</v>
       </c>
       <c r="G30">
-        <v>-0.1712360378519958</v>
+        <v>-0.08906520062304769</v>
       </c>
       <c r="H30">
-        <v>0.04301174766983184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1470673956551808</v>
+      </c>
+      <c r="I30">
+        <v>-0.04573705384100613</v>
+      </c>
+      <c r="J30">
+        <v>-0.1337417183391237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05545653624489578</v>
+        <v>-0.04055929152798131</v>
       </c>
       <c r="C31">
-        <v>0.03018174492778108</v>
+        <v>-0.02375269663328616</v>
       </c>
       <c r="D31">
-        <v>0.02263668333581068</v>
+        <v>-0.02079527664206638</v>
       </c>
       <c r="E31">
-        <v>0.009935245595408258</v>
+        <v>0.02311940354792302</v>
       </c>
       <c r="F31">
-        <v>0.002713838203020124</v>
+        <v>-0.007103660409912413</v>
       </c>
       <c r="G31">
-        <v>-0.02892755596922899</v>
+        <v>-0.0009689597214358825</v>
       </c>
       <c r="H31">
-        <v>-0.04219048691540924</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.01033287756062911</v>
+      </c>
+      <c r="I31">
+        <v>-0.02753002732380685</v>
+      </c>
+      <c r="J31">
+        <v>0.065012289140611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.0339771227706987</v>
+        <v>-0.05635644575545597</v>
       </c>
       <c r="C32">
-        <v>-0.01697781807856952</v>
+        <v>-0.003707708241989302</v>
       </c>
       <c r="D32">
-        <v>0.06569492774741689</v>
+        <v>-0.02361073990382386</v>
       </c>
       <c r="E32">
-        <v>0.007344468803213241</v>
+        <v>-0.0002890987209008063</v>
       </c>
       <c r="F32">
-        <v>0.09976901913413724</v>
+        <v>0.04487704269955869</v>
       </c>
       <c r="G32">
-        <v>-0.08228580352243689</v>
+        <v>-0.06503424681524425</v>
       </c>
       <c r="H32">
-        <v>-0.03317931016137834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03942319683798066</v>
+      </c>
+      <c r="I32">
+        <v>0.002630681218247823</v>
+      </c>
+      <c r="J32">
+        <v>0.01959258052371683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1124670557325269</v>
+        <v>-0.1117556557230524</v>
       </c>
       <c r="C33">
-        <v>0.01217381238426783</v>
+        <v>-0.04744234828776059</v>
       </c>
       <c r="D33">
-        <v>0.02169146826121959</v>
+        <v>-0.003214199561506076</v>
       </c>
       <c r="E33">
-        <v>0.02232364962418955</v>
+        <v>0.06925980557913443</v>
       </c>
       <c r="F33">
-        <v>-0.01285049516548497</v>
+        <v>0.04605770263887694</v>
       </c>
       <c r="G33">
-        <v>-0.07601362947593364</v>
+        <v>-0.01869816975739926</v>
       </c>
       <c r="H33">
-        <v>-0.06869312549588615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07524173793618812</v>
+      </c>
+      <c r="I33">
+        <v>-0.008916629681295715</v>
+      </c>
+      <c r="J33">
+        <v>0.02492055573608073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06922758379085812</v>
+        <v>-0.08782884268098236</v>
       </c>
       <c r="C34">
-        <v>0.0359921566074226</v>
+        <v>-0.04283830546757708</v>
       </c>
       <c r="D34">
-        <v>0.004089024082041454</v>
+        <v>-0.03036118878064364</v>
       </c>
       <c r="E34">
-        <v>-0.0003643843541015901</v>
+        <v>0.04487884908212372</v>
       </c>
       <c r="F34">
-        <v>0.007852155960687193</v>
+        <v>0.07367007079184829</v>
       </c>
       <c r="G34">
-        <v>-0.09930219788214241</v>
+        <v>-0.008414208542990249</v>
       </c>
       <c r="H34">
-        <v>0.007640435436875928</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.09946426113780303</v>
+      </c>
+      <c r="I34">
+        <v>-0.01750462860841924</v>
+      </c>
+      <c r="J34">
+        <v>0.02446635691116522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04246221278242194</v>
+        <v>-0.02095023444735477</v>
       </c>
       <c r="C35">
-        <v>0.004577243274507026</v>
+        <v>-0.00804269657197923</v>
       </c>
       <c r="D35">
-        <v>-0.02521514345172655</v>
+        <v>0.009198703858594646</v>
       </c>
       <c r="E35">
-        <v>0.01036659853659671</v>
+        <v>0.005203531270024859</v>
       </c>
       <c r="F35">
-        <v>-0.04215916788822123</v>
+        <v>0.01772961369157582</v>
       </c>
       <c r="G35">
-        <v>-0.03610674407871895</v>
+        <v>-0.004512984423422173</v>
       </c>
       <c r="H35">
-        <v>0.01280896092897458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03910203035702606</v>
+      </c>
+      <c r="I35">
+        <v>-0.004899286205558019</v>
+      </c>
+      <c r="J35">
+        <v>0.07227744481765537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03955236641710994</v>
+        <v>-0.03028597336736347</v>
       </c>
       <c r="C36">
-        <v>5.328416704243053e-05</v>
+        <v>-0.01289098205381122</v>
       </c>
       <c r="D36">
-        <v>0.01868887191240528</v>
+        <v>0.006060825833262545</v>
       </c>
       <c r="E36">
-        <v>-0.02441478493092856</v>
+        <v>0.005705230803501752</v>
       </c>
       <c r="F36">
-        <v>-0.03156501203132826</v>
+        <v>-0.01063727448036703</v>
       </c>
       <c r="G36">
-        <v>-0.06701516350240334</v>
+        <v>-0.02733410022428209</v>
       </c>
       <c r="H36">
-        <v>-0.06174645344681375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03001129069558348</v>
+      </c>
+      <c r="I36">
+        <v>-0.03429310523948191</v>
+      </c>
+      <c r="J36">
+        <v>0.03013214328485195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05121608288924203</v>
+        <v>-0.01566318456684763</v>
       </c>
       <c r="C38">
-        <v>0.02350543532600367</v>
+        <v>-0.006114708868593662</v>
       </c>
       <c r="D38">
-        <v>0.003596437520639725</v>
+        <v>-0.006648093760061654</v>
       </c>
       <c r="E38">
-        <v>-0.008497315497078014</v>
+        <v>0.007324661564366295</v>
       </c>
       <c r="F38">
-        <v>0.02398934828208583</v>
+        <v>-0.02101240786363663</v>
       </c>
       <c r="G38">
-        <v>-0.06423798927023854</v>
+        <v>0.0247781576298338</v>
       </c>
       <c r="H38">
-        <v>-0.01147705995952326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01051937122316029</v>
+      </c>
+      <c r="I38">
+        <v>0.03505815371503646</v>
+      </c>
+      <c r="J38">
+        <v>-0.009618388791112474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1066725924372053</v>
+        <v>-0.1551970664612961</v>
       </c>
       <c r="C39">
-        <v>0.04308888884579228</v>
+        <v>-0.1064110347157026</v>
       </c>
       <c r="D39">
-        <v>0.06135811563221091</v>
+        <v>-0.03224765769046897</v>
       </c>
       <c r="E39">
-        <v>-0.01263495113085536</v>
+        <v>0.06066244784927317</v>
       </c>
       <c r="F39">
-        <v>0.003102325540202226</v>
+        <v>0.1622156311096489</v>
       </c>
       <c r="G39">
-        <v>-0.1628449765146949</v>
+        <v>-0.03800690457471463</v>
       </c>
       <c r="H39">
-        <v>0.09364105391608803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1617377816427836</v>
+      </c>
+      <c r="I39">
+        <v>-0.01720367420909995</v>
+      </c>
+      <c r="J39">
+        <v>0.06524276499241831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04415053617848024</v>
+        <v>-0.01749513077101629</v>
       </c>
       <c r="C40">
-        <v>0.01652228091919936</v>
+        <v>-0.005684942489818886</v>
       </c>
       <c r="D40">
-        <v>0.04652004404762264</v>
+        <v>-0.01417818864980248</v>
       </c>
       <c r="E40">
-        <v>0.02354748209043036</v>
+        <v>-0.006017276060461829</v>
       </c>
       <c r="F40">
-        <v>-0.0837966763154116</v>
+        <v>-0.04429198481800884</v>
       </c>
       <c r="G40">
-        <v>-0.2895732294152192</v>
+        <v>-0.0199858990039186</v>
       </c>
       <c r="H40">
-        <v>0.09442328041607724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.09628737088472743</v>
+      </c>
+      <c r="I40">
+        <v>-0.05199230773131701</v>
+      </c>
+      <c r="J40">
+        <v>-0.003952317967973865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04829574329252056</v>
+        <v>-0.02676311478924669</v>
       </c>
       <c r="C41">
-        <v>0.03484878000933333</v>
+        <v>0.004987061757348877</v>
       </c>
       <c r="D41">
-        <v>-0.02724293492313281</v>
+        <v>-0.030057180901649</v>
       </c>
       <c r="E41">
-        <v>-0.004866887323710233</v>
+        <v>0.007647856032896564</v>
       </c>
       <c r="F41">
-        <v>0.02951091056432766</v>
+        <v>0.01139321354491193</v>
       </c>
       <c r="G41">
-        <v>-0.055239413549616</v>
+        <v>0.005247286614597456</v>
       </c>
       <c r="H41">
-        <v>-0.008414709555382144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006531411344506554</v>
+      </c>
+      <c r="I41">
+        <v>-0.006996490345969592</v>
+      </c>
+      <c r="J41">
+        <v>0.0557921206330614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.0732271096387784</v>
+        <v>-0.03886563760328961</v>
       </c>
       <c r="C43">
-        <v>0.02804428107152749</v>
+        <v>-2.635629806204397e-05</v>
       </c>
       <c r="D43">
-        <v>0.03019498759849588</v>
+        <v>-0.03796690357438458</v>
       </c>
       <c r="E43">
-        <v>-0.01089049267116807</v>
+        <v>0.03261035821581876</v>
       </c>
       <c r="F43">
-        <v>0.03846137655175252</v>
+        <v>-0.002616697462276866</v>
       </c>
       <c r="G43">
-        <v>-0.01667877005831514</v>
+        <v>0.000120737925295455</v>
       </c>
       <c r="H43">
-        <v>-0.008188352217776178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.00704482196182651</v>
+      </c>
+      <c r="I43">
+        <v>-0.008509852069660059</v>
+      </c>
+      <c r="J43">
+        <v>0.0677704655081061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08187797432470223</v>
+        <v>-0.1259689762726391</v>
       </c>
       <c r="C44">
-        <v>0.003353229601025191</v>
+        <v>-0.06267317372188601</v>
       </c>
       <c r="D44">
-        <v>0.06062363410006914</v>
+        <v>0.006586110423164484</v>
       </c>
       <c r="E44">
-        <v>-0.1133218280729412</v>
+        <v>0.03550825539596031</v>
       </c>
       <c r="F44">
-        <v>0.02261644074955618</v>
+        <v>0.01601164562104697</v>
       </c>
       <c r="G44">
-        <v>-0.1024730551657484</v>
+        <v>0.05499157838061133</v>
       </c>
       <c r="H44">
-        <v>-0.02248719560055527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2316007006264037</v>
+      </c>
+      <c r="I44">
+        <v>-0.06648326222350871</v>
+      </c>
+      <c r="J44">
+        <v>-0.1227884621806449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.0511894630967147</v>
+        <v>-0.02227320315905998</v>
       </c>
       <c r="C46">
-        <v>0.04037324860535148</v>
+        <v>0.001622901407668953</v>
       </c>
       <c r="D46">
-        <v>0.04849729697430576</v>
+        <v>-0.02069380812784347</v>
       </c>
       <c r="E46">
-        <v>0.0003930543904157668</v>
+        <v>0.0240985852644198</v>
       </c>
       <c r="F46">
-        <v>0.0116891623299299</v>
+        <v>-0.02848892635941324</v>
       </c>
       <c r="G46">
-        <v>-0.01569534908514566</v>
+        <v>0.01170683473164194</v>
       </c>
       <c r="H46">
-        <v>-0.1009126281028465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04088562702782022</v>
+      </c>
+      <c r="I46">
+        <v>0.007249444115074273</v>
+      </c>
+      <c r="J46">
+        <v>0.1088043701674572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05178116461129673</v>
+        <v>-0.04763439258187041</v>
       </c>
       <c r="C47">
-        <v>-0.004461607246443493</v>
+        <v>0.001092063420836989</v>
       </c>
       <c r="D47">
-        <v>0.04736541855535215</v>
+        <v>-0.01389811706869658</v>
       </c>
       <c r="E47">
-        <v>0.02413415979777934</v>
+        <v>0.01392646621844064</v>
       </c>
       <c r="F47">
-        <v>-0.043917431377125</v>
+        <v>-0.00581953451729821</v>
       </c>
       <c r="G47">
-        <v>-0.02237501343432828</v>
+        <v>-0.03026431160979082</v>
       </c>
       <c r="H47">
-        <v>-0.04854886104926879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.04736310405347013</v>
+      </c>
+      <c r="I47">
+        <v>-0.04431135118407067</v>
+      </c>
+      <c r="J47">
+        <v>0.05045352277235294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04199169899342379</v>
+        <v>-0.04489033877173657</v>
       </c>
       <c r="C48">
-        <v>0.003673997720658377</v>
+        <v>-0.01502135697865015</v>
       </c>
       <c r="D48">
-        <v>0.02711377514546977</v>
+        <v>0.01133922918846885</v>
       </c>
       <c r="E48">
-        <v>0.03893562414362298</v>
+        <v>0.01503782436729187</v>
       </c>
       <c r="F48">
-        <v>-0.04308360012468179</v>
+        <v>0.007637184587937214</v>
       </c>
       <c r="G48">
-        <v>-0.04483581137495189</v>
+        <v>-0.03649987108837584</v>
       </c>
       <c r="H48">
-        <v>-0.02251866267149101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05399883267716969</v>
+      </c>
+      <c r="I48">
+        <v>-0.02410498036401501</v>
+      </c>
+      <c r="J48">
+        <v>0.08075823576853768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2428729122266067</v>
+        <v>-0.2274339897062455</v>
       </c>
       <c r="C49">
-        <v>0.06230392232888703</v>
+        <v>0.009588449749776131</v>
       </c>
       <c r="D49">
-        <v>-0.1096664470078893</v>
+        <v>-0.06326693520660145</v>
       </c>
       <c r="E49">
-        <v>-0.001184455494761103</v>
+        <v>-0.02909649454378527</v>
       </c>
       <c r="F49">
-        <v>0.0184528699087936</v>
+        <v>0.03320181318712154</v>
       </c>
       <c r="G49">
-        <v>0.1978687129070491</v>
+        <v>0.1147436565801629</v>
       </c>
       <c r="H49">
-        <v>0.08889144839382758</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.09668226591760676</v>
+      </c>
+      <c r="I49">
+        <v>0.08386899559496973</v>
+      </c>
+      <c r="J49">
+        <v>-0.2537182940762591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05704697494097399</v>
+        <v>-0.04664206102110947</v>
       </c>
       <c r="C50">
-        <v>0.01697345615606376</v>
+        <v>-0.02027265489240531</v>
       </c>
       <c r="D50">
-        <v>0.0252584605737918</v>
+        <v>-0.02792610740360512</v>
       </c>
       <c r="E50">
-        <v>0.01689747755219275</v>
+        <v>0.01501018224865231</v>
       </c>
       <c r="F50">
-        <v>0.01465690604192393</v>
+        <v>0.002414735977368347</v>
       </c>
       <c r="G50">
-        <v>-0.0234748931425383</v>
+        <v>-0.005181882245071003</v>
       </c>
       <c r="H50">
-        <v>-0.070677818032903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03080882864459104</v>
+      </c>
+      <c r="I50">
+        <v>-0.009276537124027645</v>
+      </c>
+      <c r="J50">
+        <v>0.06092510961267392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03177093065889842</v>
+        <v>-0.01342123190620752</v>
       </c>
       <c r="C51">
-        <v>0.01449331775434919</v>
+        <v>0.008715814898840799</v>
       </c>
       <c r="D51">
-        <v>0.01406229092231822</v>
+        <v>-0.001956491096472344</v>
       </c>
       <c r="E51">
-        <v>-0.02252377175287104</v>
+        <v>0.01447970375572044</v>
       </c>
       <c r="F51">
-        <v>0.0372037890905599</v>
+        <v>-0.005552729535192156</v>
       </c>
       <c r="G51">
-        <v>0.005217453975630299</v>
+        <v>0.0254615205620869</v>
       </c>
       <c r="H51">
-        <v>0.03777793285152103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.007356953285763674</v>
+      </c>
+      <c r="I51">
+        <v>-0.00545218634765353</v>
+      </c>
+      <c r="J51">
+        <v>-0.01588706152275247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.1082495560782177</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.05963893976088529</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.0309722415661245</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0228118665806596</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01481982490313998</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.01468757888680778</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02596000081154506</v>
+      </c>
+      <c r="I52">
+        <v>0.05905928394686877</v>
+      </c>
+      <c r="J52">
+        <v>0.07497551675061664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1641198705201934</v>
+        <v>-0.1586984981670318</v>
       </c>
       <c r="C53">
-        <v>0.01411070822344277</v>
+        <v>0.000241629719901169</v>
       </c>
       <c r="D53">
-        <v>-0.0001671048178795667</v>
+        <v>0.007704826629405252</v>
       </c>
       <c r="E53">
-        <v>0.04902879592843391</v>
+        <v>-0.01877729208069326</v>
       </c>
       <c r="F53">
-        <v>0.1660926937801731</v>
+        <v>-0.04120748131268254</v>
       </c>
       <c r="G53">
-        <v>0.009139560489893435</v>
+        <v>0.06655282760841925</v>
       </c>
       <c r="H53">
-        <v>-0.04327558353327458</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.09328735494884269</v>
+      </c>
+      <c r="I53">
+        <v>0.1475228801231314</v>
+      </c>
+      <c r="J53">
+        <v>0.1012529136387851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05271871524442988</v>
+        <v>-0.05167358074384224</v>
       </c>
       <c r="C54">
-        <v>0.004653089592403669</v>
+        <v>-0.004656463422877863</v>
       </c>
       <c r="D54">
-        <v>0.02627533922176889</v>
+        <v>-0.009350061474388568</v>
       </c>
       <c r="E54">
-        <v>-0.005372604989566574</v>
+        <v>0.01232752664274615</v>
       </c>
       <c r="F54">
-        <v>-0.02654173802696817</v>
+        <v>-0.02190246502706025</v>
       </c>
       <c r="G54">
-        <v>-0.04193417974036919</v>
+        <v>-0.02459990825589501</v>
       </c>
       <c r="H54">
-        <v>-0.0830814134669806</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05860096288731001</v>
+      </c>
+      <c r="I54">
+        <v>-0.06680954508981744</v>
+      </c>
+      <c r="J54">
+        <v>0.1099018029029288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1020662826299781</v>
+        <v>-0.09178779420846622</v>
       </c>
       <c r="C55">
-        <v>0.01690709529018534</v>
+        <v>-0.01982176162899396</v>
       </c>
       <c r="D55">
-        <v>0.01141172007623235</v>
+        <v>0.01990964349655127</v>
       </c>
       <c r="E55">
-        <v>0.02131727885555244</v>
+        <v>0.02747600280859751</v>
       </c>
       <c r="F55">
-        <v>0.07541296325072304</v>
+        <v>0.001013307435916212</v>
       </c>
       <c r="G55">
-        <v>-0.0383184261178233</v>
+        <v>0.01349300784435933</v>
       </c>
       <c r="H55">
-        <v>-0.07958601213703867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02893542303244538</v>
+      </c>
+      <c r="I55">
+        <v>0.05186706003607316</v>
+      </c>
+      <c r="J55">
+        <v>0.091864614407627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1659346900700975</v>
+        <v>-0.1610625350071592</v>
       </c>
       <c r="C56">
-        <v>0.01227393357050752</v>
+        <v>-0.01132198384001362</v>
       </c>
       <c r="D56">
-        <v>-0.007749326306109146</v>
+        <v>-0.007029553635423165</v>
       </c>
       <c r="E56">
-        <v>0.08322498602845327</v>
+        <v>0.01100064219988824</v>
       </c>
       <c r="F56">
-        <v>0.1563769338532444</v>
+        <v>-0.004856565250538313</v>
       </c>
       <c r="G56">
-        <v>-0.006120704578738925</v>
+        <v>0.05216050658645895</v>
       </c>
       <c r="H56">
-        <v>-0.04823205590803621</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01916047001325231</v>
+      </c>
+      <c r="I56">
+        <v>0.1159593759378408</v>
+      </c>
+      <c r="J56">
+        <v>0.09740831556659214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01743719609926864</v>
+        <v>-0.03313601046422764</v>
       </c>
       <c r="C58">
-        <v>0.0607390062052124</v>
+        <v>-0.02301508493788743</v>
       </c>
       <c r="D58">
-        <v>0.1001282968313172</v>
+        <v>-0.01378329063056224</v>
       </c>
       <c r="E58">
-        <v>-0.005241973295269484</v>
+        <v>-0.005989174002418822</v>
       </c>
       <c r="F58">
-        <v>-0.5356392422727679</v>
+        <v>-0.06356406122103579</v>
       </c>
       <c r="G58">
-        <v>-0.06845099988938376</v>
+        <v>-0.02972846159584261</v>
       </c>
       <c r="H58">
-        <v>0.2361415762424836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.09950578265222143</v>
+      </c>
+      <c r="I58">
+        <v>0.04643925063188916</v>
+      </c>
+      <c r="J58">
+        <v>0.09012655734428926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1541126903997695</v>
+        <v>-0.1363716338676101</v>
       </c>
       <c r="C59">
-        <v>-0.3675772348163729</v>
+        <v>0.3038807827731367</v>
       </c>
       <c r="D59">
-        <v>-0.02513637348536022</v>
+        <v>0.06721626560326725</v>
       </c>
       <c r="E59">
-        <v>-0.04435048218112948</v>
+        <v>0.04150400130307294</v>
       </c>
       <c r="F59">
-        <v>0.05072541263546606</v>
+        <v>0.03683306864166503</v>
       </c>
       <c r="G59">
-        <v>-0.001087746658086867</v>
+        <v>0.02613970975764298</v>
       </c>
       <c r="H59">
-        <v>0.04112609903609749</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.04330198766502225</v>
+      </c>
+      <c r="I59">
+        <v>-0.07906906593392096</v>
+      </c>
+      <c r="J59">
+        <v>0.01096272583693304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.282244744200122</v>
+        <v>-0.2822346303370288</v>
       </c>
       <c r="C60">
-        <v>0.04715965981592939</v>
+        <v>-0.05686896230139635</v>
       </c>
       <c r="D60">
-        <v>-0.06815034451249199</v>
+        <v>-0.001374906939159709</v>
       </c>
       <c r="E60">
-        <v>-0.04503567551898389</v>
+        <v>-0.08092618076414361</v>
       </c>
       <c r="F60">
-        <v>0.0004515955287190626</v>
+        <v>0.0432068666765402</v>
       </c>
       <c r="G60">
-        <v>0.17152312910696</v>
+        <v>0.2023716907264244</v>
       </c>
       <c r="H60">
-        <v>0.07645967825681664</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1092213460917964</v>
+      </c>
+      <c r="I60">
+        <v>0.02660446271439226</v>
+      </c>
+      <c r="J60">
+        <v>-0.4735542228711255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09389811701682325</v>
+        <v>-0.1197924353707986</v>
       </c>
       <c r="C61">
-        <v>0.02055545470500438</v>
+        <v>-0.06407625667103946</v>
       </c>
       <c r="D61">
-        <v>0.02515827966739683</v>
+        <v>-0.001833888145161991</v>
       </c>
       <c r="E61">
-        <v>-0.01177176860616139</v>
+        <v>0.04911765613580081</v>
       </c>
       <c r="F61">
-        <v>0.01811811050555133</v>
+        <v>0.1139474012036319</v>
       </c>
       <c r="G61">
-        <v>-0.0864254528608739</v>
+        <v>-0.02403949481231348</v>
       </c>
       <c r="H61">
-        <v>0.02437221106448604</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1426434060680006</v>
+      </c>
+      <c r="I61">
+        <v>-0.07946591054748602</v>
+      </c>
+      <c r="J61">
+        <v>0.08136142573895945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1403667094248336</v>
+        <v>-0.1618026827278455</v>
       </c>
       <c r="C62">
-        <v>0.04105576780706558</v>
+        <v>-0.02709920129161592</v>
       </c>
       <c r="D62">
-        <v>-0.05760315735535843</v>
+        <v>-0.0008595477943783691</v>
       </c>
       <c r="E62">
-        <v>0.0948201221784304</v>
+        <v>-0.004704411857458434</v>
       </c>
       <c r="F62">
-        <v>0.1610606949774238</v>
+        <v>-0.007963054176126168</v>
       </c>
       <c r="G62">
-        <v>0.001799467420264806</v>
+        <v>0.01716401929284033</v>
       </c>
       <c r="H62">
-        <v>-0.06484430638852615</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05231040427108491</v>
+      </c>
+      <c r="I62">
+        <v>0.1126297448578998</v>
+      </c>
+      <c r="J62">
+        <v>0.09064722562361884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04479730755244769</v>
+        <v>-0.05260361036163284</v>
       </c>
       <c r="C63">
-        <v>0.01644066350221977</v>
+        <v>-0.02373933765983844</v>
       </c>
       <c r="D63">
-        <v>-0.0003867099919027997</v>
+        <v>0.004798035810508547</v>
       </c>
       <c r="E63">
-        <v>0.0110549280499404</v>
+        <v>0.02841627767664998</v>
       </c>
       <c r="F63">
-        <v>-0.01911333251468925</v>
+        <v>0.00257492687718126</v>
       </c>
       <c r="G63">
-        <v>-0.03132564959439357</v>
+        <v>-0.05983112993216617</v>
       </c>
       <c r="H63">
-        <v>-0.1111534485330305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03433647851551828</v>
+      </c>
+      <c r="I63">
+        <v>-0.03448459951291532</v>
+      </c>
+      <c r="J63">
+        <v>0.09585681028583452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.11082356559122</v>
+        <v>-0.1037248445490454</v>
       </c>
       <c r="C64">
-        <v>0.01109217609379744</v>
+        <v>-0.0253447423264645</v>
       </c>
       <c r="D64">
-        <v>0.01685740649828498</v>
+        <v>-0.0114933819745217</v>
       </c>
       <c r="E64">
-        <v>-0.03335939764682992</v>
+        <v>0.008267544126686765</v>
       </c>
       <c r="F64">
-        <v>0.007718741963435386</v>
+        <v>0.005069248097155162</v>
       </c>
       <c r="G64">
-        <v>-0.0283488886734032</v>
+        <v>0.03926778635789274</v>
       </c>
       <c r="H64">
-        <v>-0.006530158441286456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05966242647652925</v>
+      </c>
+      <c r="I64">
+        <v>-0.01939344476472751</v>
+      </c>
+      <c r="J64">
+        <v>0.01948380440032603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1081587810113783</v>
+        <v>-0.1153897933417463</v>
       </c>
       <c r="C65">
-        <v>0.0206796426446791</v>
+        <v>-0.0005568324248171609</v>
       </c>
       <c r="D65">
-        <v>-0.003199830828743816</v>
+        <v>0.01030890606715234</v>
       </c>
       <c r="E65">
-        <v>-0.02987495666159684</v>
+        <v>-0.01782690311207567</v>
       </c>
       <c r="F65">
-        <v>-0.4455722992870388</v>
+        <v>0.01296380062650876</v>
       </c>
       <c r="G65">
-        <v>0.2389639020553491</v>
+        <v>-0.07764392882578755</v>
       </c>
       <c r="H65">
-        <v>-0.5222865439741591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02596324686868109</v>
+      </c>
+      <c r="I65">
+        <v>-0.04517718503593143</v>
+      </c>
+      <c r="J65">
+        <v>-0.1940878814503084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1523006800682697</v>
+        <v>-0.1874496801260195</v>
       </c>
       <c r="C66">
-        <v>0.05532766222791612</v>
+        <v>-0.112356484026854</v>
       </c>
       <c r="D66">
-        <v>0.01476293455813332</v>
+        <v>-0.04658613588243748</v>
       </c>
       <c r="E66">
-        <v>-0.04395579332215317</v>
+        <v>0.06666935137218963</v>
       </c>
       <c r="F66">
-        <v>0.06894534136829018</v>
+        <v>0.1575757544945521</v>
       </c>
       <c r="G66">
-        <v>-0.2782031861869696</v>
+        <v>-0.03029376740385218</v>
       </c>
       <c r="H66">
-        <v>0.1725087757167507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1636319982173664</v>
+      </c>
+      <c r="I66">
+        <v>-0.02547135239129144</v>
+      </c>
+      <c r="J66">
+        <v>0.0290083411923548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1068941103915853</v>
+        <v>-0.08315129175482483</v>
       </c>
       <c r="C67">
-        <v>0.04236232623983215</v>
+        <v>-0.02731054557497701</v>
       </c>
       <c r="D67">
-        <v>-0.01359809184504671</v>
+        <v>0.006243362452927112</v>
       </c>
       <c r="E67">
-        <v>-0.03389002916386905</v>
+        <v>0.07585556696859097</v>
       </c>
       <c r="F67">
-        <v>0.05547957027433011</v>
+        <v>-0.007849740826548421</v>
       </c>
       <c r="G67">
-        <v>-0.04605178858526812</v>
+        <v>0.06339865358516966</v>
       </c>
       <c r="H67">
-        <v>-0.008702780781698701</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.05780612888938047</v>
+      </c>
+      <c r="I67">
+        <v>-0.03433405280292044</v>
+      </c>
+      <c r="J67">
+        <v>-0.1272899757464278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04222537872504922</v>
+        <v>-0.05556856138494173</v>
       </c>
       <c r="C68">
-        <v>-0.2933932801194932</v>
+        <v>0.275560354990066</v>
       </c>
       <c r="D68">
-        <v>0.003978282256694627</v>
+        <v>0.06586091164328767</v>
       </c>
       <c r="E68">
-        <v>0.02263932962393206</v>
+        <v>0.03190117880982052</v>
       </c>
       <c r="F68">
-        <v>-0.02131052364337113</v>
+        <v>0.05385725892004038</v>
       </c>
       <c r="G68">
-        <v>0.02297672426623142</v>
+        <v>-0.04028237939464559</v>
       </c>
       <c r="H68">
-        <v>-0.03343375037840607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04592985575321448</v>
+      </c>
+      <c r="I68">
+        <v>-0.04621890773663591</v>
+      </c>
+      <c r="J68">
+        <v>-0.008011420351620295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.04992237804406492</v>
+        <v>-0.03880905468533094</v>
       </c>
       <c r="C69">
-        <v>0.009590681211808994</v>
+        <v>0.0002778383998073911</v>
       </c>
       <c r="D69">
-        <v>0.004622486251692288</v>
+        <v>0.01256308665501504</v>
       </c>
       <c r="E69">
-        <v>0.04273050190758788</v>
+        <v>0.02412479448088127</v>
       </c>
       <c r="F69">
-        <v>-0.001717755424218415</v>
+        <v>0.004436638887177733</v>
       </c>
       <c r="G69">
-        <v>-0.01028808872563344</v>
+        <v>0.0003918672951686143</v>
       </c>
       <c r="H69">
-        <v>0.001775664161297083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02114220868130835</v>
+      </c>
+      <c r="I69">
+        <v>0.0007596669319416205</v>
+      </c>
+      <c r="J69">
+        <v>0.01572056190374331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08095374689104662</v>
+        <v>-0.04259884078353286</v>
       </c>
       <c r="C70">
-        <v>0.01279995455743626</v>
+        <v>0.004903369131636022</v>
       </c>
       <c r="D70">
-        <v>-0.02985291233617132</v>
+        <v>0.02090359118818213</v>
       </c>
       <c r="E70">
-        <v>-0.05155145876491726</v>
+        <v>0.02829118620718544</v>
       </c>
       <c r="F70">
-        <v>0.04421126558347327</v>
+        <v>0.01512579822168346</v>
       </c>
       <c r="G70">
-        <v>0.03722430208438141</v>
+        <v>0.05011369609589586</v>
       </c>
       <c r="H70">
-        <v>-0.0231604156891566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.008297583137119483</v>
+      </c>
+      <c r="I70">
+        <v>-0.01666002288753033</v>
+      </c>
+      <c r="J70">
+        <v>0.08596233764820023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.05433990232668069</v>
+        <v>-0.06522264026631698</v>
       </c>
       <c r="C71">
-        <v>-0.3038157679020813</v>
+        <v>0.2973588573646218</v>
       </c>
       <c r="D71">
-        <v>-0.001153000984034257</v>
+        <v>0.07257650780618422</v>
       </c>
       <c r="E71">
-        <v>-0.001748540314046895</v>
+        <v>0.03485075000776092</v>
       </c>
       <c r="F71">
-        <v>-0.003412050564228931</v>
+        <v>0.04885529009092661</v>
       </c>
       <c r="G71">
-        <v>-0.004332379196834143</v>
+        <v>-0.0150417573298316</v>
       </c>
       <c r="H71">
-        <v>0.005409607163467191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05438771448016815</v>
+      </c>
+      <c r="I71">
+        <v>-0.03811688402848507</v>
+      </c>
+      <c r="J71">
+        <v>-0.02489701222586813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1272204883762166</v>
+        <v>-0.1313628109997281</v>
       </c>
       <c r="C72">
-        <v>-0.01061570732099542</v>
+        <v>0.02809578595129814</v>
       </c>
       <c r="D72">
-        <v>-0.0803127276708939</v>
+        <v>-0.01132809588031825</v>
       </c>
       <c r="E72">
-        <v>0.1253003292209685</v>
+        <v>0.01227848913362108</v>
       </c>
       <c r="F72">
-        <v>-0.003493678921756997</v>
+        <v>0.003035782076839454</v>
       </c>
       <c r="G72">
-        <v>-0.04285749506702441</v>
+        <v>-0.03318453439869165</v>
       </c>
       <c r="H72">
-        <v>-0.07276229518386904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.06196381782728755</v>
+      </c>
+      <c r="I72">
+        <v>0.01578292047255851</v>
+      </c>
+      <c r="J72">
+        <v>0.01260309684397414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2721041692135258</v>
+        <v>-0.2292454717781689</v>
       </c>
       <c r="C73">
-        <v>0.1343812197990376</v>
+        <v>-0.007150906616162961</v>
       </c>
       <c r="D73">
-        <v>-0.1322280276568877</v>
+        <v>-0.02997955918410967</v>
       </c>
       <c r="E73">
-        <v>-0.08033439814326186</v>
+        <v>-0.007167991567538251</v>
       </c>
       <c r="F73">
-        <v>-0.1165012599486806</v>
+        <v>0.04104029358765185</v>
       </c>
       <c r="G73">
-        <v>0.3813442270675778</v>
+        <v>0.2502882265581281</v>
       </c>
       <c r="H73">
-        <v>0.4163458261069588</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1863922031916134</v>
+      </c>
+      <c r="I73">
+        <v>0.1945064115154732</v>
+      </c>
+      <c r="J73">
+        <v>-0.2669259105468327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1014769329417017</v>
+        <v>-0.1115708492119313</v>
       </c>
       <c r="C74">
-        <v>0.03804063083161319</v>
+        <v>-0.02309238222005193</v>
       </c>
       <c r="D74">
-        <v>0.007319114825655361</v>
+        <v>-0.0235917701512519</v>
       </c>
       <c r="E74">
-        <v>0.01825288082084178</v>
+        <v>0.008819017351442466</v>
       </c>
       <c r="F74">
-        <v>0.09166598075856132</v>
+        <v>-0.01825211381835884</v>
       </c>
       <c r="G74">
-        <v>0.02980580317718813</v>
+        <v>0.006020645373929947</v>
       </c>
       <c r="H74">
-        <v>-0.02254269402745701</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.002252978366536029</v>
+      </c>
+      <c r="I74">
+        <v>0.1118783270608613</v>
+      </c>
+      <c r="J74">
+        <v>0.09922033266516916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09829119392640495</v>
+        <v>-0.1285595209861224</v>
       </c>
       <c r="C75">
-        <v>0.02083712981574351</v>
+        <v>-0.02788592903355219</v>
       </c>
       <c r="D75">
-        <v>-0.006371957238552402</v>
+        <v>-0.02324748674994545</v>
       </c>
       <c r="E75">
-        <v>0.06981711615124304</v>
+        <v>0.0118779718095063</v>
       </c>
       <c r="F75">
-        <v>0.05976957292783373</v>
+        <v>-0.01600934118538896</v>
       </c>
       <c r="G75">
-        <v>0.0155371476758026</v>
+        <v>-0.01696773746713196</v>
       </c>
       <c r="H75">
-        <v>-0.02373022558106268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.005919031206911765</v>
+      </c>
+      <c r="I75">
+        <v>0.03418259170574374</v>
+      </c>
+      <c r="J75">
+        <v>0.0862000212810856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1469181865936773</v>
+        <v>-0.04091298222690481</v>
       </c>
       <c r="C76">
-        <v>0.03019870973454728</v>
+        <v>0.004849165037417359</v>
       </c>
       <c r="D76">
-        <v>0.03803761645608424</v>
+        <v>-0.009667836218156008</v>
       </c>
       <c r="E76">
-        <v>0.04743642917903065</v>
+        <v>0.02205702510723321</v>
       </c>
       <c r="F76">
-        <v>0.1802548601932373</v>
+        <v>-0.02456623237007202</v>
       </c>
       <c r="G76">
-        <v>0.03413424415042168</v>
+        <v>0.04769339781208105</v>
       </c>
       <c r="H76">
-        <v>-0.03897262783157571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04448512062651222</v>
+      </c>
+      <c r="I76">
+        <v>0.03262288746834952</v>
+      </c>
+      <c r="J76">
+        <v>0.04833082498509664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07390792721277842</v>
+        <v>-0.0876232853144671</v>
       </c>
       <c r="C77">
-        <v>-0.01420845063065757</v>
+        <v>-0.07484177315151294</v>
       </c>
       <c r="D77">
-        <v>0.01726769595226508</v>
+        <v>-0.01437337787502352</v>
       </c>
       <c r="E77">
-        <v>-0.1088336484787193</v>
+        <v>-0.01518303111229856</v>
       </c>
       <c r="F77">
-        <v>-0.2135814961983019</v>
+        <v>0.00537988431670644</v>
       </c>
       <c r="G77">
-        <v>-0.08514719112731763</v>
+        <v>-0.005768951168489695</v>
       </c>
       <c r="H77">
-        <v>0.2558823232345762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.07332901323796898</v>
+      </c>
+      <c r="I77">
+        <v>-0.1752434409506338</v>
+      </c>
+      <c r="J77">
+        <v>-0.1700967875029361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2295728500999528</v>
+        <v>-0.1520049591628735</v>
       </c>
       <c r="C78">
-        <v>0.04209690157847111</v>
+        <v>-0.02893088022195267</v>
       </c>
       <c r="D78">
-        <v>0.1597317448629501</v>
+        <v>-0.1481180943998054</v>
       </c>
       <c r="E78">
-        <v>-0.09199534861447528</v>
+        <v>0.2342568493293535</v>
       </c>
       <c r="F78">
-        <v>-0.09985918311723563</v>
+        <v>-0.3366265486102235</v>
       </c>
       <c r="G78">
-        <v>-0.1867739090995902</v>
+        <v>-0.05536606745707021</v>
       </c>
       <c r="H78">
-        <v>-0.09673360506736221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4831669483478402</v>
+      </c>
+      <c r="I78">
+        <v>-0.6639432153945494</v>
+      </c>
+      <c r="J78">
+        <v>0.08355864131719316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1380043965554607</v>
+        <v>-0.144555836457243</v>
       </c>
       <c r="C79">
-        <v>0.01737532269827087</v>
+        <v>-0.01940861336776603</v>
       </c>
       <c r="D79">
-        <v>-0.006886991105668558</v>
+        <v>-0.0413796582014704</v>
       </c>
       <c r="E79">
-        <v>0.0516212759603868</v>
+        <v>-0.005935498373133316</v>
       </c>
       <c r="F79">
-        <v>0.07491707578565979</v>
+        <v>-0.01021293035679959</v>
       </c>
       <c r="G79">
-        <v>-0.0195930662084061</v>
+        <v>0.02395688295419419</v>
       </c>
       <c r="H79">
-        <v>-0.06964195478370618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.01577794862831012</v>
+      </c>
+      <c r="I79">
+        <v>0.1088480519930837</v>
+      </c>
+      <c r="J79">
+        <v>0.09655846861468885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04332044283947624</v>
+        <v>-0.08096318707789192</v>
       </c>
       <c r="C80">
-        <v>-0.009681441263634386</v>
+        <v>-0.04398701928872646</v>
       </c>
       <c r="D80">
-        <v>-0.1055891552917121</v>
+        <v>0.01617668867992006</v>
       </c>
       <c r="E80">
-        <v>-0.04517931750590105</v>
+        <v>0.03308943195734291</v>
       </c>
       <c r="F80">
-        <v>-0.04086977814228313</v>
+        <v>0.04589775584541363</v>
       </c>
       <c r="G80">
-        <v>-0.02015805117236346</v>
+        <v>-0.00891052294247909</v>
       </c>
       <c r="H80">
-        <v>-0.1196975841571505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02074392896414276</v>
+      </c>
+      <c r="I80">
+        <v>-0.0317612228848408</v>
+      </c>
+      <c r="J80">
+        <v>0.1289573182430252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1094697863234772</v>
+        <v>-0.1487231096971546</v>
       </c>
       <c r="C81">
-        <v>0.004685606572835062</v>
+        <v>-0.03719836076063152</v>
       </c>
       <c r="D81">
-        <v>0.002828765029009844</v>
+        <v>-0.02902729128352589</v>
       </c>
       <c r="E81">
-        <v>0.02597651329228949</v>
+        <v>0.02376659388269127</v>
       </c>
       <c r="F81">
-        <v>0.1080249975430847</v>
+        <v>-0.02224377975228624</v>
       </c>
       <c r="G81">
-        <v>-0.02394394076020121</v>
+        <v>0.004448718974380881</v>
       </c>
       <c r="H81">
-        <v>-0.03076099078603816</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01185927701009539</v>
+      </c>
+      <c r="I81">
+        <v>0.02760391023048782</v>
+      </c>
+      <c r="J81">
+        <v>0.1401750803242787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1199957526835255</v>
+        <v>-0.1644749697660801</v>
       </c>
       <c r="C82">
-        <v>0.0229195400773275</v>
+        <v>-0.04683923770188831</v>
       </c>
       <c r="D82">
-        <v>-0.02256450451929421</v>
+        <v>0.007226578276711201</v>
       </c>
       <c r="E82">
-        <v>-0.02404922317687034</v>
+        <v>-0.001035438724199</v>
       </c>
       <c r="F82">
-        <v>0.2131332112752113</v>
+        <v>0.003690099809721335</v>
       </c>
       <c r="G82">
-        <v>-0.02192188358444478</v>
+        <v>0.05394315016711155</v>
       </c>
       <c r="H82">
-        <v>-0.07421161086654518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.04082689615453865</v>
+      </c>
+      <c r="I82">
+        <v>0.1464924101267305</v>
+      </c>
+      <c r="J82">
+        <v>0.1819697391103937</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1125691454837115</v>
+        <v>-0.09096873253948048</v>
       </c>
       <c r="C83">
-        <v>0.04528134503587653</v>
+        <v>-0.03041227417734985</v>
       </c>
       <c r="D83">
-        <v>-0.02957954955709189</v>
+        <v>0.0004104235845344598</v>
       </c>
       <c r="E83">
-        <v>-0.08250829536769699</v>
+        <v>-0.04923604839125684</v>
       </c>
       <c r="F83">
-        <v>-0.02992726542635138</v>
+        <v>-0.04042246722154915</v>
       </c>
       <c r="G83">
-        <v>-0.06142368665865374</v>
+        <v>-0.05605884239404517</v>
       </c>
       <c r="H83">
-        <v>0.0552221312295662</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.04614372788810038</v>
+      </c>
+      <c r="I83">
+        <v>-0.06918127304494685</v>
+      </c>
+      <c r="J83">
+        <v>0.1171323050125582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04952939090667962</v>
+        <v>-0.06642264954072746</v>
       </c>
       <c r="C84">
-        <v>0.02896715603723617</v>
+        <v>-0.01717961452606818</v>
       </c>
       <c r="D84">
-        <v>0.01102988746111944</v>
+        <v>0.0032568560303138</v>
       </c>
       <c r="E84">
-        <v>0.04424722733269949</v>
+        <v>-0.01615839144046211</v>
       </c>
       <c r="F84">
-        <v>0.06090845531202484</v>
+        <v>0.08815280880262782</v>
       </c>
       <c r="G84">
-        <v>-0.00584384272203753</v>
+        <v>0.02462760564076158</v>
       </c>
       <c r="H84">
-        <v>-0.06285009627230147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.08324266219113015</v>
+      </c>
+      <c r="I84">
+        <v>-0.09372444263246711</v>
+      </c>
+      <c r="J84">
+        <v>-0.142244239982507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1118349181841248</v>
+        <v>-0.1228566330741432</v>
       </c>
       <c r="C85">
-        <v>0.01753846662476362</v>
+        <v>-0.009212971050556809</v>
       </c>
       <c r="D85">
-        <v>0.001359709263559406</v>
+        <v>-0.01174647576856267</v>
       </c>
       <c r="E85">
-        <v>0.07541411461736537</v>
+        <v>-0.003266711522379475</v>
       </c>
       <c r="F85">
-        <v>0.1061095986539803</v>
+        <v>-0.01608416716067646</v>
       </c>
       <c r="G85">
-        <v>-0.04204132217589047</v>
+        <v>0.02180583443765123</v>
       </c>
       <c r="H85">
-        <v>-0.1012343436248351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.01516538333493578</v>
+      </c>
+      <c r="I85">
+        <v>0.06775039108636659</v>
+      </c>
+      <c r="J85">
+        <v>0.08794206475900079</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06294238152355153</v>
+        <v>-0.1027585949171319</v>
       </c>
       <c r="C86">
-        <v>0.02506341060460289</v>
+        <v>0.08200764547255482</v>
       </c>
       <c r="D86">
-        <v>0.02921242101264527</v>
+        <v>-0.3254877691284213</v>
       </c>
       <c r="E86">
-        <v>-0.1110031926837731</v>
+        <v>-0.8679489621807494</v>
       </c>
       <c r="F86">
-        <v>0.04784919806015773</v>
+        <v>-0.114236139070685</v>
       </c>
       <c r="G86">
-        <v>0.05698928632032311</v>
+        <v>-0.1106966683303254</v>
       </c>
       <c r="H86">
-        <v>-0.2133026108938108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.1065401327373038</v>
+      </c>
+      <c r="I86">
+        <v>-0.1769502709717029</v>
+      </c>
+      <c r="J86">
+        <v>0.03242708117325554</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1132095719506983</v>
+        <v>-0.1153447334485371</v>
       </c>
       <c r="C87">
-        <v>0.04989841182695726</v>
+        <v>-0.08845317424787234</v>
       </c>
       <c r="D87">
-        <v>0.02870113699367122</v>
+        <v>0.06022555609500437</v>
       </c>
       <c r="E87">
-        <v>-0.0308305961362454</v>
+        <v>-0.01290958506430307</v>
       </c>
       <c r="F87">
-        <v>-0.07161983905715712</v>
+        <v>0.001369751918456213</v>
       </c>
       <c r="G87">
-        <v>-0.1278587866097296</v>
+        <v>0.01160188969706014</v>
       </c>
       <c r="H87">
-        <v>-0.02637910162809157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.07480324176780274</v>
+      </c>
+      <c r="I87">
+        <v>-0.1791470568663532</v>
+      </c>
+      <c r="J87">
+        <v>-0.06337401813880726</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07423176381680736</v>
+        <v>-0.05660524563197311</v>
       </c>
       <c r="C88">
-        <v>0.0431237034865544</v>
+        <v>-0.02636947811337941</v>
       </c>
       <c r="D88">
-        <v>0.008288530363172385</v>
+        <v>-0.02584040237354971</v>
       </c>
       <c r="E88">
-        <v>-0.0241165400092075</v>
+        <v>0.03517173293128812</v>
       </c>
       <c r="F88">
-        <v>0.01749061802612862</v>
+        <v>0.05173009404871535</v>
       </c>
       <c r="G88">
-        <v>-0.05389922251718248</v>
+        <v>0.007513156319521068</v>
       </c>
       <c r="H88">
-        <v>-0.01602737172354409</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.005812655920506362</v>
+      </c>
+      <c r="I88">
+        <v>-0.0307686371635384</v>
+      </c>
+      <c r="J88">
+        <v>0.0601682826003932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09576372986304463</v>
+        <v>-0.1015699435202505</v>
       </c>
       <c r="C89">
-        <v>-0.3882271845856586</v>
+        <v>0.3715386162190806</v>
       </c>
       <c r="D89">
-        <v>0.01577519374794453</v>
+        <v>0.08682564759048553</v>
       </c>
       <c r="E89">
-        <v>-0.04667430892336038</v>
+        <v>0.01131625440954877</v>
       </c>
       <c r="F89">
-        <v>-0.00707095214936632</v>
+        <v>-0.007094500848724486</v>
       </c>
       <c r="G89">
-        <v>0.007020475465965457</v>
+        <v>0.03111538178907601</v>
       </c>
       <c r="H89">
-        <v>0.02751329755249803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02801875459242296</v>
+      </c>
+      <c r="I89">
+        <v>-0.04126247641590287</v>
+      </c>
+      <c r="J89">
+        <v>0.02218740543419478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07304884679156855</v>
+        <v>-0.07387988388885038</v>
       </c>
       <c r="C90">
-        <v>-0.301527295326207</v>
+        <v>0.3019914451671433</v>
       </c>
       <c r="D90">
-        <v>0.0295420682718304</v>
+        <v>0.06756319490543872</v>
       </c>
       <c r="E90">
-        <v>-0.01078711465689246</v>
+        <v>0.02133112409680695</v>
       </c>
       <c r="F90">
-        <v>0.00917255309230528</v>
+        <v>0.05778425310820411</v>
       </c>
       <c r="G90">
-        <v>-0.02605860035325894</v>
+        <v>-0.002558981057307024</v>
       </c>
       <c r="H90">
-        <v>0.0420600517012104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06749984964641569</v>
+      </c>
+      <c r="I90">
+        <v>-0.0214341013516516</v>
+      </c>
+      <c r="J90">
+        <v>-0.02125209325722032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08430407404708645</v>
+        <v>-0.09362934607029509</v>
       </c>
       <c r="C91">
-        <v>0.03125039775798659</v>
+        <v>-0.01960550619197552</v>
       </c>
       <c r="D91">
-        <v>0.004847757508351231</v>
+        <v>-0.01997824082766465</v>
       </c>
       <c r="E91">
-        <v>0.01437890743772392</v>
+        <v>-0.009990819361358042</v>
       </c>
       <c r="F91">
-        <v>0.04132439779735724</v>
+        <v>-0.01824842546013099</v>
       </c>
       <c r="G91">
-        <v>0.03459320501661953</v>
+        <v>0.0217713526003838</v>
       </c>
       <c r="H91">
-        <v>0.008868559300848344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.01050732526851084</v>
+      </c>
+      <c r="I91">
+        <v>0.03637669101490856</v>
+      </c>
+      <c r="J91">
+        <v>0.0678120541918755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06840181084523245</v>
+        <v>-0.08662560642540623</v>
       </c>
       <c r="C92">
-        <v>-0.3599536591868485</v>
+        <v>0.3348090808459345</v>
       </c>
       <c r="D92">
-        <v>0.02420963390312745</v>
+        <v>0.09783672402672511</v>
       </c>
       <c r="E92">
-        <v>-0.02170854373723879</v>
+        <v>0.009262952418452331</v>
       </c>
       <c r="F92">
-        <v>-0.05562150430396115</v>
+        <v>0.007983707424298917</v>
       </c>
       <c r="G92">
-        <v>0.01058171195149125</v>
+        <v>-0.02728413656947026</v>
       </c>
       <c r="H92">
-        <v>0.02447573794108465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06368646768198317</v>
+      </c>
+      <c r="I92">
+        <v>-0.02319858525922878</v>
+      </c>
+      <c r="J92">
+        <v>0.06533993134413586</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08518765574007633</v>
+        <v>-0.08021093992875411</v>
       </c>
       <c r="C93">
-        <v>-0.3127376077500202</v>
+        <v>0.3289759178008057</v>
       </c>
       <c r="D93">
-        <v>-0.01516802189506016</v>
+        <v>0.07317015073764442</v>
       </c>
       <c r="E93">
-        <v>-0.008153900932093311</v>
+        <v>0.01030533561448743</v>
       </c>
       <c r="F93">
-        <v>-0.02164620049276212</v>
+        <v>0.06109203518664348</v>
       </c>
       <c r="G93">
-        <v>0.02829288124899976</v>
+        <v>0.001264848087997968</v>
       </c>
       <c r="H93">
-        <v>-0.002682995202233192</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03639147292452936</v>
+      </c>
+      <c r="I93">
+        <v>-0.03930581450965864</v>
+      </c>
+      <c r="J93">
+        <v>0.0102258375951831</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09778211839485627</v>
+        <v>-0.1471781903233122</v>
       </c>
       <c r="C94">
-        <v>0.05007784572075764</v>
+        <v>-0.03187934210598688</v>
       </c>
       <c r="D94">
-        <v>0.01210910020375229</v>
+        <v>-0.02383608612932967</v>
       </c>
       <c r="E94">
-        <v>0.03060079349031961</v>
+        <v>0.04288326268994721</v>
       </c>
       <c r="F94">
-        <v>0.08004608326168576</v>
+        <v>-0.03334472064130843</v>
       </c>
       <c r="G94">
-        <v>0.02241130942735705</v>
+        <v>0.008357998324520506</v>
       </c>
       <c r="H94">
-        <v>-0.0367287694013055</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.001694875609096516</v>
+      </c>
+      <c r="I94">
+        <v>0.04527073564359552</v>
+      </c>
+      <c r="J94">
+        <v>0.05320008301605062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1306523626731947</v>
+        <v>-0.1289883789162084</v>
       </c>
       <c r="C95">
-        <v>0.06071109099458694</v>
+        <v>-0.04074688815932691</v>
       </c>
       <c r="D95">
-        <v>0.07270932021477702</v>
+        <v>-0.0331715788366983</v>
       </c>
       <c r="E95">
-        <v>-0.06962970728296076</v>
+        <v>0.03998089667072513</v>
       </c>
       <c r="F95">
-        <v>-0.1626234631930172</v>
+        <v>0.008650417595357561</v>
       </c>
       <c r="G95">
-        <v>-0.07030810084061359</v>
+        <v>0.01479718255310687</v>
       </c>
       <c r="H95">
-        <v>-0.04705503488674419</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1060004166415019</v>
+      </c>
+      <c r="I95">
+        <v>-0.1257345709095167</v>
+      </c>
+      <c r="J95">
+        <v>-0.1054870551811169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01227947024995787</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0001875476309139135</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.002237901569068386</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.002796864619437026</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002841324617823149</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.009177257989725579</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0003763425329105416</v>
+      </c>
+      <c r="I96">
+        <v>-0.02226057892733843</v>
+      </c>
+      <c r="J96">
+        <v>-0.01003558325491848</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1414046975968478</v>
+        <v>-0.171910085292541</v>
       </c>
       <c r="C97">
-        <v>-0.03602559103623736</v>
+        <v>0.01792521854087693</v>
       </c>
       <c r="D97">
-        <v>-0.1465904109518388</v>
+        <v>-0.04997019265556025</v>
       </c>
       <c r="E97">
-        <v>0.8786118502501422</v>
+        <v>0.08285507444701203</v>
       </c>
       <c r="F97">
-        <v>-0.1751879353373764</v>
+        <v>-0.07484529460657274</v>
       </c>
       <c r="G97">
-        <v>-0.07312332063594144</v>
+        <v>-0.8609303413708023</v>
       </c>
       <c r="H97">
-        <v>0.03228707724396709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1661614360226388</v>
+      </c>
+      <c r="I97">
+        <v>0.2841996262156032</v>
+      </c>
+      <c r="J97">
+        <v>-0.1707685167371349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3187868193376093</v>
+        <v>-0.2454500732509109</v>
       </c>
       <c r="C98">
-        <v>0.06929449421282607</v>
+        <v>0.009025437748550838</v>
       </c>
       <c r="D98">
-        <v>-0.1774301766978415</v>
+        <v>0.06216755923783223</v>
       </c>
       <c r="E98">
-        <v>-0.1277221668672376</v>
+        <v>-0.1534313343281628</v>
       </c>
       <c r="F98">
-        <v>0.04472222949821886</v>
+        <v>-0.1456965588528892</v>
       </c>
       <c r="G98">
-        <v>0.2252756689408636</v>
+        <v>0.1672018161687246</v>
       </c>
       <c r="H98">
-        <v>0.1270446288586967</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3550460301154488</v>
+      </c>
+      <c r="I98">
+        <v>0.2473433965415071</v>
+      </c>
+      <c r="J98">
+        <v>0.2722223685776285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.09027484346539034</v>
+        <v>-0.05955272864368226</v>
       </c>
       <c r="C99">
-        <v>0.01656942548116103</v>
+        <v>0.005980571854197603</v>
       </c>
       <c r="D99">
-        <v>0.01488970930262444</v>
+        <v>-0.02123553364349481</v>
       </c>
       <c r="E99">
-        <v>0.00729861249472252</v>
+        <v>0.04753869525521756</v>
       </c>
       <c r="F99">
-        <v>0.02212175188594942</v>
+        <v>0.009170747959352086</v>
       </c>
       <c r="G99">
-        <v>-0.006533525867211443</v>
+        <v>0.01362439543027063</v>
       </c>
       <c r="H99">
-        <v>0.06938683988824226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02889088115791908</v>
+      </c>
+      <c r="I99">
+        <v>0.0157021105608684</v>
+      </c>
+      <c r="J99">
+        <v>-0.001340163990147248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.09220677841785696</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2154388794105287</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.883785786337887</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2585083371163748</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.08146305711007318</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.09611696420709993</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.0291237699789289</v>
+      </c>
+      <c r="I100">
+        <v>-0.1389701956940343</v>
+      </c>
+      <c r="J100">
+        <v>0.0004227489258033653</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05869010267114313</v>
+        <v>-0.03755225246867821</v>
       </c>
       <c r="C101">
-        <v>-0.002131625888497197</v>
+        <v>-0.00492729372560865</v>
       </c>
       <c r="D101">
-        <v>0.04071365472705624</v>
+        <v>0.005985687301335603</v>
       </c>
       <c r="E101">
-        <v>-0.02715580532550176</v>
+        <v>0.01019270537828517</v>
       </c>
       <c r="F101">
-        <v>0.01160031305016041</v>
+        <v>0.02181763400010251</v>
       </c>
       <c r="G101">
-        <v>-0.04724583225249242</v>
+        <v>0.007634729216221437</v>
       </c>
       <c r="H101">
-        <v>-0.106529041335625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05927668545007844</v>
+      </c>
+      <c r="I101">
+        <v>-0.01481626684786582</v>
+      </c>
+      <c r="J101">
+        <v>0.116546593423096</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
